--- a/Data/ConfigMsPayroll.xlsx
+++ b/Data/ConfigMsPayroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WORKSTATION-VM\Documents\UiPath\Moneysoft_Payroll_Bot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WORKSTATION-VM\Documents\UiPath\moneysoft-payroll-basic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB1A41-496B-4ED2-AF1A-3B7D41CAE3B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314F59F-73BF-47DE-83EA-E73EA5774E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="11475" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="9015" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>ColLetter_ViewButtonRow</t>
+  </si>
+  <si>
+    <t>InputFileName</t>
+  </si>
+  <si>
+    <t>payroll bot.xlsx</t>
   </si>
 </sst>
 </file>
@@ -731,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +787,14 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/ConfigMsPayroll.xlsx
+++ b/Data/ConfigMsPayroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WORKSTATION-VM\Documents\UiPath\moneysoft-payroll-basic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314F59F-73BF-47DE-83EA-E73EA5774E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7BFD31-E210-4D05-8B15-2529D5863D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="9015" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="9015" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>payroll bot.xlsx</t>
+  </si>
+  <si>
+    <t>MsPayroll_EmailTemplateFolderPath</t>
+  </si>
+  <si>
+    <t>EmailTemplateFolderPath</t>
+  </si>
+  <si>
+    <t>The full directory path to the External config folder used by the Bot</t>
+  </si>
+  <si>
+    <t>The full directory path to the Email Template folder used by the Bot</t>
   </si>
 </sst>
 </file>
@@ -402,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -420,6 +432,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -737,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1097,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D8F21-4660-448E-8C3A-0D2E91DB482A}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,24 +1253,38 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>96</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>97</v>
       </c>
     </row>
